--- a/Input/Lyr/LYR_21_oxygen.xlsx
+++ b/Input/Lyr/LYR_21_oxygen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Nauka\Projekty\W trakcie\Biomass related to animals in cryoconite holes\Statystyka\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\OneDrive\Nauka\Projekty\W trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Lyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288571AD-1805-4F31-9D7E-FDF2A7BAB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oxygen_LYR_final" sheetId="1" r:id="rId1"/>
     <sheet name="Kalkulacja_OM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
-    <t>tardigrada</t>
-  </si>
-  <si>
-    <t>rotifera</t>
-  </si>
-  <si>
     <t>dry_weight</t>
   </si>
   <si>
@@ -209,12 +205,18 @@
   </si>
   <si>
     <t>CH_ID</t>
+  </si>
+  <si>
+    <t>Rotifera</t>
+  </si>
+  <si>
+    <t>Tardigrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,12 +1036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,40 +1062,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1125,7 +1127,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K2">
         <v>46.103896103896105</v>
@@ -1163,7 +1165,7 @@
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>61.797752808988761</v>
@@ -1198,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>36.231884057971016</v>
@@ -1233,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>39.735099337748345</v>
@@ -1271,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>53.571428571428569</v>
@@ -1306,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>42.21635883905013</v>
@@ -1341,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>28.571428571428573</v>
@@ -1376,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>12.422360248447205</v>
@@ -1411,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K10">
         <v>19.379844961240309</v>
@@ -1446,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>21.50537634408602</v>
@@ -1481,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>17.857142857142858</v>
@@ -1516,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>27.972027972027973</v>
@@ -1551,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <v>17.142857142857142</v>
@@ -1586,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>25.089605734767023</v>
@@ -1621,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K16">
         <v>16.722408026755854</v>
@@ -1656,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K17">
         <v>112.67605633802818</v>
@@ -1691,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <v>25.925925925925924</v>
@@ -1726,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K19">
         <v>24.390243902439025</v>
@@ -1761,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <v>62.500000000000007</v>
@@ -1796,7 +1798,7 @@
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K21">
         <v>122.80701754385964</v>
@@ -1831,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K22">
         <v>46.610169491525426</v>
@@ -1857,7 +1859,7 @@
         <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K23">
         <v>71.611253196930946</v>
@@ -1892,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K24">
         <v>66.079295154185019</v>
@@ -1927,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K25">
         <v>12.048192771084336</v>
@@ -1962,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <v>28.368794326241137</v>
@@ -1991,7 +1993,7 @@
         <v>77</v>
       </c>
       <c r="J27" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>330.47210300429185</v>
@@ -2020,7 +2022,7 @@
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K28">
         <v>105.96026490066225</v>
@@ -2049,7 +2051,7 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K29">
         <v>109.58904109589042</v>
@@ -2078,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K30">
         <v>169.64285714285714</v>
@@ -2104,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K31">
         <v>85.836909871244629</v>
@@ -2133,7 +2135,7 @@
         <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K32">
         <v>134.88372093023256</v>
@@ -2162,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K33">
         <v>171.64179104477611</v>
@@ -2191,7 +2193,7 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K34">
         <v>78.804347826086953</v>
@@ -2223,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K35">
         <v>159.34065934065936</v>
@@ -2252,7 +2254,7 @@
         <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K36">
         <v>290.54054054054058</v>
@@ -2281,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K37">
         <v>133.33333333333334</v>
@@ -2310,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>121.2121212121212</v>
@@ -2339,7 +2341,7 @@
         <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K39">
         <v>265.11627906976747</v>
@@ -2368,7 +2370,7 @@
         <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K40">
         <v>278.48101265822783</v>
@@ -2397,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K41">
         <v>41.666666666666664</v>
@@ -2435,7 +2437,7 @@
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K42">
         <v>15.584415584415584</v>
@@ -2473,7 +2475,7 @@
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K43">
         <v>26.966292134831459</v>
@@ -2508,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K44">
         <v>9.6618357487922708</v>
@@ -2543,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K45">
         <v>26.490066225165563</v>
@@ -2581,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K46">
         <v>17.857142857142858</v>
@@ -2616,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K47">
         <v>7.9155672823218994</v>
@@ -2651,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2686,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K49">
         <v>6.2111801242236027</v>
@@ -2721,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K50">
         <v>7.7519379844961236</v>
@@ -2756,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K51">
         <v>3.5842293906810032</v>
@@ -2791,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2826,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K53">
         <v>13.986013986013987</v>
@@ -2861,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K54">
         <v>11.428571428571429</v>
@@ -2896,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K55">
         <v>7.1684587813620064</v>
@@ -2931,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K56">
         <v>10.033444816053512</v>
@@ -2966,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="J57" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K57">
         <v>31.690140845070424</v>
@@ -3001,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K58">
         <v>29.629629629629626</v>
@@ -3036,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K59">
         <v>6.9686411149825789</v>
@@ -3071,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K60">
         <v>6.9444444444444446</v>
@@ -3106,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K61">
         <v>52.631578947368418</v>
@@ -3141,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="J62" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K62">
         <v>33.898305084745765</v>
@@ -3167,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="J63" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K63">
         <v>20.460358056265985</v>
@@ -3202,7 +3204,7 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K64">
         <v>35.242290748898675</v>
@@ -3237,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K66">
         <v>14.184397163120568</v>
@@ -3301,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K67">
         <v>85.836909871244629</v>
@@ -3330,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K68">
         <v>36.423841059602651</v>
@@ -3359,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="J69" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K69">
         <v>34.246575342465754</v>
@@ -3388,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K70">
         <v>44.642857142857139</v>
@@ -3414,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K71">
         <v>111.58798283261802</v>
@@ -3443,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K72">
         <v>41.860465116279073</v>
@@ -3472,7 +3474,7 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K73">
         <v>104.4776119402985</v>
@@ -3501,7 +3503,7 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K74">
         <v>9.5108695652173907</v>
@@ -3533,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="J75" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K75">
         <v>27.472527472527474</v>
@@ -3562,7 +3564,7 @@
         <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K76">
         <v>135.13513513513513</v>
@@ -3591,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K77">
         <v>40</v>
@@ -3620,7 +3622,7 @@
         <v>8</v>
       </c>
       <c r="J78" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K78">
         <v>121.2121212121212</v>
@@ -3649,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K79">
         <v>23.255813953488371</v>
@@ -3678,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K80">
         <v>151.89873417721518</v>
@@ -3707,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3723,7 +3725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3734,24 +3736,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>6.88</v>
@@ -3769,7 +3771,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>6.7549999999999999</v>
@@ -3787,7 +3789,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>12.276999999999999</v>
@@ -3805,7 +3807,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>7.3010000000000002</v>
@@ -3823,7 +3825,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>11.332000000000001</v>
@@ -3841,7 +3843,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>6.6680000000000001</v>
@@ -3859,7 +3861,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>7.13</v>
@@ -3877,7 +3879,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>6.9660000000000002</v>
@@ -3895,7 +3897,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>69.899000000000001</v>
@@ -3913,7 +3915,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>91.700999999999993</v>
@@ -3931,7 +3933,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>31.161000000000001</v>
@@ -3949,7 +3951,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>22.448</v>
@@ -3967,7 +3969,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>27.114999999999998</v>
@@ -3985,7 +3987,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>34.432000000000002</v>
@@ -4003,7 +4005,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>23.581</v>
@@ -4021,7 +4023,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>24.954000000000001</v>
@@ -4039,7 +4041,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>10.364000000000001</v>
@@ -4057,7 +4059,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>10.994999999999999</v>
@@ -4075,7 +4077,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>6.3949999999999996</v>
@@ -4093,7 +4095,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>10.051</v>
@@ -4111,7 +4113,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>10.563000000000001</v>
@@ -4129,7 +4131,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>9.7949999999999999</v>
@@ -4147,7 +4149,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>9.7970000000000006</v>
@@ -4165,7 +4167,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>6.97</v>
@@ -4183,7 +4185,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>7.133</v>
@@ -4201,7 +4203,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>6.6710000000000003</v>
@@ -4219,7 +4221,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>7.3019999999999996</v>
@@ -4237,7 +4239,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>6.88</v>
@@ -4255,7 +4257,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>6.7560000000000002</v>
@@ -4273,7 +4275,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>11.335000000000001</v>
@@ -4291,7 +4293,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>12.278</v>
@@ -4309,7 +4311,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>24.957000000000001</v>
@@ -4327,7 +4329,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>22.449000000000002</v>
@@ -4345,7 +4347,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>27.119</v>
@@ -4363,7 +4365,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>22.913</v>
@@ -4381,7 +4383,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>23.585999999999999</v>
@@ -4399,7 +4401,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>26.690999999999999</v>
@@ -4417,7 +4419,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>24.071999999999999</v>
@@ -4435,7 +4437,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>34.436</v>
@@ -4453,7 +4455,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>31.161999999999999</v>

--- a/Input/Lyr/LYR_21_oxygen.xlsx
+++ b/Input/Lyr/LYR_21_oxygen.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\OneDrive\Nauka\Projekty\W trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Lyr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Nauka\Projekty\W_trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Lyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288571AD-1805-4F31-9D7E-FDF2A7BAB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="oxygen_LYR_final" sheetId="1" r:id="rId1"/>
     <sheet name="Kalkulacja_OM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,12 +1035,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2409,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>446.40073849999999</v>
@@ -2448,7 +2447,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>412.27788090000001</v>
@@ -2486,7 +2485,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>428.72550660000002</v>
@@ -2521,7 +2520,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>437.06441039999999</v>
@@ -2556,7 +2555,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>428.22435910000002</v>
@@ -2594,7 +2593,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>429.3538757</v>
@@ -2629,7 +2628,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>427.99346919999999</v>
@@ -2664,7 +2663,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>429.4869751</v>
@@ -2699,7 +2698,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>410.05681149999998</v>
@@ -2734,7 +2733,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>421.30331419999999</v>
@@ -2769,7 +2768,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>417.3162476</v>
@@ -2804,7 +2803,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>420.59098510000001</v>
@@ -2839,7 +2838,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>432.8289734</v>
@@ -2874,7 +2873,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>427.49375609999998</v>
@@ -2909,7 +2908,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B56">
         <v>454.22922360000001</v>
@@ -2944,7 +2943,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>420.0280396</v>
@@ -2979,7 +2978,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>417.61608280000002</v>
@@ -3014,7 +3013,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>419.57000119999998</v>
@@ -3049,7 +3048,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>423.9691406</v>
@@ -3084,7 +3083,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>422.90452879999998</v>
@@ -3119,7 +3118,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B62">
         <v>419.8736389</v>
@@ -3154,7 +3153,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>422.11746829999998</v>
@@ -3180,7 +3179,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B64">
         <v>410.21673579999998</v>
@@ -3215,7 +3214,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>417.37452999999999</v>
@@ -3250,7 +3249,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B66">
         <v>412.2536743</v>
@@ -3285,7 +3284,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>413.00012820000001</v>
@@ -3314,7 +3313,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>399.1365662</v>
@@ -3343,7 +3342,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B69">
         <v>394.39126590000001</v>
@@ -3372,7 +3371,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B70">
         <v>402.67310789999999</v>
@@ -3401,7 +3400,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B71">
         <v>405.36285400000003</v>
@@ -3427,7 +3426,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B72">
         <v>408.3914734</v>
@@ -3456,7 +3455,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>408.61501459999999</v>
@@ -3485,7 +3484,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B74">
         <v>408.57604370000001</v>
@@ -3514,7 +3513,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>396.661676</v>
@@ -3546,7 +3545,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B76">
         <v>405.79219970000003</v>
@@ -3575,7 +3574,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B77">
         <v>409.1860413</v>
@@ -3604,7 +3603,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B78">
         <v>404.99660640000002</v>
@@ -3633,7 +3632,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B79">
         <v>403.15574950000001</v>
@@ -3662,7 +3661,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B80">
         <v>399.55200810000002</v>
@@ -3691,7 +3690,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B81">
         <v>396.73771360000001</v>
@@ -3725,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
